--- a/Data/cases-bolivia.xlsx
+++ b/Data/cases-bolivia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Omonte\Documents\Documentos 2019\Covid-Bolivia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Omonte\Documents\Documentos 2019\Covid-Bolivia\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEC3174-2A55-4080-9983-ECEC05FC1C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6317A-637C-48F5-A686-528FFB38CDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9672" yWindow="1716" windowWidth="17280" windowHeight="8964" xr2:uid="{CF06284B-F35B-4172-8807-A38A6C9E46F9}"/>
+    <workbookView xWindow="3156" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{CF06284B-F35B-4172-8807-A38A6C9E46F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bolivia" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>14</v>
